--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H2">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>86.62271976379117</v>
+        <v>352.418196969792</v>
       </c>
       <c r="R2">
-        <v>86.62271976379117</v>
+        <v>3171.763772728128</v>
       </c>
       <c r="S2">
-        <v>0.1379385966987852</v>
+        <v>0.3079685212442754</v>
       </c>
       <c r="T2">
-        <v>0.1379385966987852</v>
+        <v>0.3079685212442753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H3">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>251.9343628925638</v>
+        <v>354.0691973232493</v>
       </c>
       <c r="R3">
-        <v>251.9343628925638</v>
+        <v>3186.622775909244</v>
       </c>
       <c r="S3">
-        <v>0.401181959794907</v>
+        <v>0.309411284818347</v>
       </c>
       <c r="T3">
-        <v>0.401181959794907</v>
+        <v>0.309411284818347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H4">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>11.1751888186863</v>
+        <v>17.00232558527233</v>
       </c>
       <c r="R4">
-        <v>11.1751888186863</v>
+        <v>153.020930267451</v>
       </c>
       <c r="S4">
-        <v>0.01779544520995167</v>
+        <v>0.0148578623726937</v>
       </c>
       <c r="T4">
-        <v>0.01779544520995167</v>
+        <v>0.0148578623726937</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>59.10279586890694</v>
+        <v>173.519147035584</v>
       </c>
       <c r="R5">
-        <v>59.10279586890694</v>
+        <v>1561.672323320256</v>
       </c>
       <c r="S5">
-        <v>0.09411568633913531</v>
+        <v>0.15163358640274</v>
       </c>
       <c r="T5">
-        <v>0.09411568633913531</v>
+        <v>0.1516335864027399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>171.8951478665813</v>
+        <v>174.3320453919987</v>
       </c>
       <c r="R6">
-        <v>171.8951478665813</v>
+        <v>1568.988408527988</v>
       </c>
       <c r="S6">
-        <v>0.2737269799505621</v>
+        <v>0.1523439558073266</v>
       </c>
       <c r="T6">
-        <v>0.2737269799505621</v>
+        <v>0.1523439558073266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N7">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P7">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q7">
-        <v>7.624846060575832</v>
+        <v>8.371386774419667</v>
       </c>
       <c r="R7">
-        <v>7.624846060575832</v>
+        <v>75.342480969777</v>
       </c>
       <c r="S7">
-        <v>0.01214185572224129</v>
+        <v>0.007315523511128162</v>
       </c>
       <c r="T7">
-        <v>0.01214185572224129</v>
+        <v>0.007315523511128161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H8">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N8">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O8">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P8">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q8">
-        <v>9.814493091788847</v>
+        <v>31.47676553664</v>
       </c>
       <c r="R8">
-        <v>9.814493091788847</v>
+        <v>283.29088982976</v>
       </c>
       <c r="S8">
-        <v>0.01562866425901778</v>
+        <v>0.02750667536246067</v>
       </c>
       <c r="T8">
-        <v>0.01562866425901778</v>
+        <v>0.02750667536246067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H9">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N9">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P9">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q9">
-        <v>28.54456741759865</v>
+        <v>31.62422713616444</v>
       </c>
       <c r="R9">
-        <v>28.54456741759865</v>
+        <v>284.61804422548</v>
       </c>
       <c r="S9">
-        <v>0.04545455953927785</v>
+        <v>0.02763553797834243</v>
       </c>
       <c r="T9">
-        <v>0.04545455953927785</v>
+        <v>0.02763553797834243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H10">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N10">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P10">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q10">
-        <v>1.266166818122456</v>
+        <v>1.518588485574444</v>
       </c>
       <c r="R10">
-        <v>1.266166818122456</v>
+        <v>13.66729637017</v>
       </c>
       <c r="S10">
-        <v>0.002016252486121819</v>
+        <v>0.00132705250268627</v>
       </c>
       <c r="T10">
-        <v>0.002016252486121819</v>
+        <v>0.00132705250268627</v>
       </c>
     </row>
   </sheetData>
